--- a/test_report/result.xlsx
+++ b/test_report/result.xlsx
@@ -1568,7 +1568,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.312586</t>
+          <t>0.296494</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.510352</t>
+          <t>0.55488</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.219982</t>
+          <t>0.229474</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.416291</t>
+          <t>0.390281</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.383903</t>
+          <t>0.315228</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -1872,7 +1872,14 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>{"id":"","baseInfo":{"bizClassStr":"商品分类","bizCataStr":"黑色金属材料","projName":"无归属项目","bizClassId":"14","bidName":"齐","endDatetime":"2020年01月10日00点00分","bizCataId":"100010"},"required":{"orgName":"但是","supplyList":[],"baseList":[{"isSatisfy":true,"value":"不限","key":"注册资金"},{"isSatisfy":true,"value":"不限","key":"成立年限"},{"isSatisfy":true,"value":"不限","key":"供应商类型"},{"isSatisfy":true,"value":"不限","key":"招标地区"},{"isSatisfy":false,"value":"黑色金属材料","key":"招标类目"}]},"value":[{"brandName":"","subMatterId":"11719710203969536","tenderPrice":"1","bidQty":10,"remark":"","unit":"1","tenderAmount":"","specName":"21","reserved":null,"subName":"1","own_org_id":null,"oriName":"","id":null}],"upload":{"files":[{"isFolder":false,"isRoot":false,"id":"11769980275654656","fileType":"application/x-zip-compressed","name":"pconline1482488773765.zip","size":393141,"relativePath":"pconline1482488773765.zip","paused":false,"error":false,"allError":false,"aborted":false,"averageSpeed":0,"currentSpeed":0,"_lastProgressCallback":1577951710646,"_prevUploadedSize":393141,"_prevProgress":1,"uniqueIdentifier":"393141-pconline1482488773765zip","ignored":false,"url":"https://gdjcywebdata001.oss-cn-shenzhen.aliyuncs.com/7019d175fd4a45eea8e10ff791df122a.zip","_progeressId":19}],"tenderAmount":211},"tenderExplain":"","contact":{"contactsName":"韩信","contactsMobile":"13000000000","contactsEmail":"66666@136.com","contactsPhoneHead":"","contactsPhoneStern":"","contactsPhone":"-"},"billStatus":0,"bidId":"11719710194270208","bidType":"BDA"}</t>
+          <t>{
+"baseInfo":{},
+"required":{},
+"value":[{"subMatterId":"11720045850787840","tenderPrice":"6","bidQty":10}],
+"upload":{"files":[{"isFolder":false,"isRoot":false,"id":"11771794235326464","fileType":"application/x-zip-compressed","name":"pconline1482488773765.zip","size":393141,"relativePath":"pconline1482488773765.zip","paused":false,"error":false,"allError":false,"aborted":false,"averageSpeed":0,"currentSpeed":0,"_lastProgressCallback":1577958630274,"_prevUploadedSize":393141,"_prevProgress":1,"uniqueIdentifier":"393141-pconline1482488773765zip","ignored":false,"url":"https://gdjcywebdata001.oss-cn-shenzhen.aliyuncs.com/84567db3c30349649c7083235cb65fd4.zip","_progeressId":19}],
+"tenderAmount":123},
+"contact":{"contactsName":"123","contactsMobile":"13111111111","contactsEmail":"123221@qq.qqq"},
+"bidId":"11720045842137088","bidType":"BDA"}</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1902,7 +1909,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.368434</t>
+          <t>0.318983</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">

--- a/test_report/result.xlsx
+++ b/test_report/result.xlsx
@@ -1568,7 +1568,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.296494</t>
+          <t>0.290369</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.55488</t>
+          <t>0.475078</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.229474</t>
+          <t>0.220373</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.390281</t>
+          <t>0.377525</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.315228</t>
+          <t>0.318143</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.318983</t>
+          <t>0.309262</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">

--- a/test_report/result.xlsx
+++ b/test_report/result.xlsx
@@ -489,6 +489,26 @@
           <t>"success":true</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.062259</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"success":false,"msg":"用户已存在","code":500,"data":{"msg":"用户已存在"}}</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -538,6 +558,21 @@
           <t>"msg":"用户已存在"</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0.073722</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -588,6 +623,21 @@
           <t>"msg":"请输入用户昵称"</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.029337</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -638,6 +688,21 @@
           <t>"msg":"请输入用户昵称"</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.037296</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -688,6 +753,21 @@
           <t>"msg":"请输入登录密码"</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.037694</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -738,6 +818,21 @@
           <t>"msg":"请输入登录密码"</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.039448</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -788,6 +883,21 @@
           <t>"msg":"验证码不正确"</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0.036541</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -838,6 +948,21 @@
           <t>"msg":"请输入验证码"</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0.038029</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -888,6 +1013,21 @@
           <t>"msg":"请输入验证码"</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.038739</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -938,6 +1078,21 @@
           <t>"msg":"用户手机号格式不正确"</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0.038978</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -988,6 +1143,21 @@
           <t>"msg":"请输入手机号"</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0.049925</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1038,6 +1208,21 @@
           <t>"msg":"请输入手机号"</t>
         </is>
       </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.039727</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1088,6 +1273,21 @@
           <t>"msg":"参数安全等级为空"</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0.028161</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1138,6 +1338,21 @@
           <t>"msg":"参数安全等级为空"</t>
         </is>
       </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0.030115</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1188,6 +1403,21 @@
           <t>"success":true</t>
         </is>
       </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.476976</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1238,6 +1468,21 @@
           <t>"msg":"用户名密码不匹配"</t>
         </is>
       </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0.146669</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1288,6 +1533,21 @@
           <t>"msg":"用户不存在"</t>
         </is>
       </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.136677</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1338,6 +1598,21 @@
           <t>"msg":"用户名为空"</t>
         </is>
       </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.035211</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1388,6 +1663,21 @@
           <t>"msg":"用户名为空"</t>
         </is>
       </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0.045477</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1438,6 +1728,21 @@
           <t>"msg":"密码为空"</t>
         </is>
       </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.032405</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1486,6 +1791,21 @@
       <c r="K22" t="inlineStr">
         <is>
           <t>"msg":"密码为空"</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0.034048</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>200</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1888,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.290369</t>
+          <t>0.683274</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1633,7 +1953,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.475078</t>
+          <t>1.167828</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1702,7 +2022,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.220373</t>
+          <t>0.36819</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -1772,7 +2092,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.377525</t>
+          <t>0.999781</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -1837,7 +2157,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.318143</t>
+          <t>0.574829</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -1909,7 +2229,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.309262</t>
+          <t>0.6031</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
